--- a/biology/Neurosciences/Amnésie_post-traumatique/Amnésie_post-traumatique.xlsx
+++ b/biology/Neurosciences/Amnésie_post-traumatique/Amnésie_post-traumatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amn%C3%A9sie_post-traumatique</t>
+          <t>Amnésie_post-traumatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amnésie post-traumatique s'observe parfois à la suite d'un choc à la tête, mais aussi à la suite d'un choc émotionnel important. Elle se caractérise par un état confusionnel après l'incident, une amnésie rétrograde qui est souvent liée à un mauvais décodage des informations et quelquefois une amnésie antérograde affectant les souvenirs les plus récents et moins consolidés.
-C'est l'un des différents syndromes de stress post-traumatique existants[1].
-Dans les traumatisme accidentels (choc, chirurgie), l'amnésie rétrograde organique est due à des lésions du cerveau  (lobes temporaux et frontaux). Dans les traumatismes psychogènes, l'amnésie, dite parfois amnésie dissociative, est due à une inactivation de ces mêmes zones, selon des études de neuro-imagerie convergentes[2].
+C'est l'un des différents syndromes de stress post-traumatique existants.
+Dans les traumatisme accidentels (choc, chirurgie), l'amnésie rétrograde organique est due à des lésions du cerveau  (lobes temporaux et frontaux). Dans les traumatismes psychogènes, l'amnésie, dite parfois amnésie dissociative, est due à une inactivation de ces mêmes zones, selon des études de neuro-imagerie convergentes.
 </t>
         </is>
       </c>
